--- a/transportation.xlsx
+++ b/transportation.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28409"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\"/>
@@ -15,13 +15,29 @@
   <sheets>
     <sheet name="transportation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,11 +545,11 @@
     <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -879,9 +895,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>0</v>
       </c>
@@ -895,7 +911,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>15</v>
       </c>
@@ -909,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>45</v>
       </c>
@@ -923,7 +939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>35</v>
       </c>
